--- a/Lesson_20200722_0_caseStudy/Lesson_20200722_0_caseStudy.xlsx
+++ b/Lesson_20200722_0_caseStudy/Lesson_20200722_0_caseStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a59c1bdb761853cd/NAER/EELAB/EELAB/Lesson_20200722_0_caseStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F075000-9244-44FF-9F9B-1375A950D5C4}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC1048E0995B61245BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA27998E-C001-4651-A3D3-23837EDE3AF5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
